--- a/SE_Examples/Red1_SE2.xlsx
+++ b/SE_Examples/Red1_SE2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SENSEI\StateEstimation_Red1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC2078-56A0-46E0-9ECB-EC803FA89826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31754FFC-56CA-4FC1-9E1D-7C4D058C9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C23E806F-D789-4BD7-A668-F96CCEAEA961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C23E806F-D789-4BD7-A668-F96CCEAEA961}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medidas SIN ruido" sheetId="4" r:id="rId1"/>
+    <sheet name="Valores_REALES" sheetId="4" r:id="rId1"/>
     <sheet name="MEDIDAS" sheetId="5" r:id="rId2"/>
-    <sheet name="Valores Ajustados" sheetId="1" r:id="rId3"/>
+    <sheet name="Valores_Ajustados" sheetId="1" r:id="rId3"/>
     <sheet name="Residuos Normalizados" sheetId="3" r:id="rId4"/>
     <sheet name="CV posterior" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -41,22 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
-  <si>
-    <t>Dem(J1)</t>
-  </si>
-  <si>
-    <t>Dem(J2)</t>
-  </si>
-  <si>
-    <t>Niv.ini(T1)</t>
-  </si>
-  <si>
-    <t>Pr(J1)</t>
-  </si>
-  <si>
-    <t>Niv.fin(T1)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>0:00-1:00</t>
   </si>
@@ -104,6 +89,30 @@
   </si>
   <si>
     <t>Valores simulados + RUIDO (acorde al CV)</t>
+  </si>
+  <si>
+    <t>COEF. CORR. VALORES REALES vs AJUSTADOS</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Niv.ini</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Niv.fin</t>
   </si>
 </sst>
 </file>
@@ -514,207 +523,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1731E5-F715-4D57-9598-D2F4785A38BE}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="6">
         <v>0</v>
       </c>
-      <c r="C1" s="6">
+      <c r="D1" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="E1" s="6">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>0.125</v>
       </c>
-      <c r="F1" s="6">
+      <c r="G1" s="6">
         <v>0.16666666666666699</v>
       </c>
-      <c r="G1" s="6">
+      <c r="H1" s="6">
         <v>0.20833333333333301</v>
       </c>
-      <c r="H1" s="6">
+      <c r="I1" s="6">
         <v>0.25</v>
       </c>
-      <c r="I1" s="6">
+      <c r="J1" s="6">
         <v>0.29166666666666702</v>
       </c>
-      <c r="J1" s="6">
+      <c r="K1" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K1" s="6">
+      <c r="L1" s="6">
         <v>0.375</v>
       </c>
-      <c r="L1" s="6">
+      <c r="M1" s="6">
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15.4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18.2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.100000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.7</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.6</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.7</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6.3</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.9004999999999992</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.7911000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.6716999999999995</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.5424000000000007</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.4280000000000008</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.3484999999999996</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9.2788000000000004</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.1892999999999994</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9.0947999999999993</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.9903999999999993</v>
       </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>10.268000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.5175000000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.5434999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3485</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.7535999999999996</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>14.3445</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16.254999999999999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11.9811</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10.701700000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8.0641999999999996</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -724,222 +749,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53FE7EE-5620-4965-841A-115205AD91AA}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="H1" s="6">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I1" s="6">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J1" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K1" s="6">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="L1" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M1" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="N1" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E1" s="6">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="F1" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="G1" s="6">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="H1" s="6">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="I1" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="J1" s="6">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="K1" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L1" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="M1" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8">
         <v>0.05</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16.2578</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.135899999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16.015699999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18.360099999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17.016500000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>11.2712</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>9.9359000000000002</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12.2293</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>12.758699999999999</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13.9376</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>6.1943999999999999</v>
+      </c>
+      <c r="E3">
+        <v>6.6288</v>
+      </c>
+      <c r="F3">
+        <v>7.3257000000000003</v>
+      </c>
+      <c r="G3">
+        <v>8.0771999999999995</v>
+      </c>
+      <c r="H3">
+        <v>7.4542000000000002</v>
+      </c>
+      <c r="I3">
+        <v>4.8750999999999998</v>
+      </c>
+      <c r="J3">
+        <v>4.0968</v>
+      </c>
+      <c r="K3">
+        <v>5.8334999999999999</v>
+      </c>
+      <c r="L3">
+        <v>6.0602</v>
+      </c>
+      <c r="M3">
+        <v>5.8691000000000004</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>10.101599999999999</v>
+      </c>
+      <c r="E4">
+        <v>9.7813999999999997</v>
+      </c>
+      <c r="F4">
+        <v>9.8600999999999992</v>
+      </c>
+      <c r="G4">
+        <v>10.049799999999999</v>
+      </c>
+      <c r="H4">
+        <v>9.3986999999999998</v>
+      </c>
+      <c r="I4">
+        <v>9.2148000000000003</v>
+      </c>
+      <c r="J4">
+        <v>9.5358999999999998</v>
+      </c>
+      <c r="K4">
+        <v>9.5708000000000002</v>
+      </c>
+      <c r="L4">
+        <v>9.0517000000000003</v>
+      </c>
+      <c r="M4">
+        <v>9.2962000000000007</v>
+      </c>
+      <c r="N4">
+        <v>9.1003000000000007</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>10.384399999999999</v>
+      </c>
+      <c r="E5">
+        <v>7.6795</v>
+      </c>
+      <c r="F5">
+        <v>4.4372999999999996</v>
+      </c>
+      <c r="G5">
+        <v>1.3655999999999999</v>
+      </c>
+      <c r="H5">
+        <v>5.8486000000000002</v>
+      </c>
+      <c r="I5">
+        <v>14.3058</v>
+      </c>
+      <c r="J5">
+        <v>16.187999999999999</v>
+      </c>
+      <c r="K5">
+        <v>11.8881</v>
+      </c>
+      <c r="L5">
+        <v>11.016400000000001</v>
+      </c>
+      <c r="M5">
+        <v>8.0810999999999993</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>6.1943999999999999</v>
-      </c>
-      <c r="D3">
-        <v>6.6288</v>
-      </c>
-      <c r="E3">
-        <v>7.3257000000000003</v>
-      </c>
-      <c r="F3">
-        <v>8.0771999999999995</v>
-      </c>
-      <c r="G3">
-        <v>7.4542000000000002</v>
-      </c>
-      <c r="H3">
-        <v>4.8750999999999998</v>
-      </c>
-      <c r="I3">
-        <v>4.0968</v>
-      </c>
-      <c r="J3">
-        <v>5.8334999999999999</v>
-      </c>
-      <c r="K3">
-        <v>6.0602</v>
-      </c>
-      <c r="L3">
-        <v>5.8691000000000004</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="C4">
-        <v>10.101599999999999</v>
-      </c>
-      <c r="D4">
-        <v>9.7813999999999997</v>
-      </c>
-      <c r="E4">
-        <v>9.8600999999999992</v>
-      </c>
-      <c r="F4">
-        <v>10.049799999999999</v>
-      </c>
-      <c r="G4">
-        <v>9.3986999999999998</v>
-      </c>
-      <c r="H4">
-        <v>9.2148000000000003</v>
-      </c>
-      <c r="I4">
-        <v>9.5358999999999998</v>
-      </c>
-      <c r="J4">
-        <v>9.5708000000000002</v>
-      </c>
-      <c r="K4">
-        <v>9.0517000000000003</v>
-      </c>
-      <c r="L4">
-        <v>9.2962000000000007</v>
-      </c>
-      <c r="M4">
-        <v>9.1003000000000007</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>10.384399999999999</v>
-      </c>
-      <c r="D5">
-        <v>7.6795</v>
-      </c>
-      <c r="E5">
-        <v>4.4372999999999996</v>
-      </c>
-      <c r="F5">
-        <v>1.3655999999999999</v>
-      </c>
-      <c r="G5">
-        <v>5.8486000000000002</v>
-      </c>
-      <c r="H5">
-        <v>14.3058</v>
-      </c>
-      <c r="I5">
-        <v>16.187999999999999</v>
-      </c>
-      <c r="J5">
-        <v>11.8881</v>
-      </c>
-      <c r="K5">
-        <v>11.016400000000001</v>
-      </c>
-      <c r="L5">
-        <v>8.0810999999999993</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -950,218 +991,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946F6A86-CCF0-4237-BA84-63637620A98A}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" customWidth="1"/>
+    <col min="14" max="14" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>14.105821000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15.424080999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.689108000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18.022753999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15.748950000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.224731</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.019771</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12.27797</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12.740046</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.968189000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <f>CORREL(Valores_REALES!C2:L2, Valores_Ajustados!C2:L2)</f>
+        <v>0.99475771612346386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>5.8821320000000004</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.5087299999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.4665860000000004</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8.0118930000000006</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7.2110279999999998</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.8663670000000003</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.1110119999999997</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.8445819999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6.0559630000000002</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6.0517409999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <f>CORREL(Valores_REALES!C3:L3, Valores_Ajustados!C3:L3)</f>
+        <v>0.98003582892500152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>10.038531000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.9593769999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.9199909999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.7438789999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.570513</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.4797949999999993</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.4275660000000006</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9.3314900000000005</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.2562049999999996</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9.1616949999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <f>CORREL(Valores_REALES!C4:L4, Valores_Ajustados!C4:L4)</f>
+        <v>0.99611675972990277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>10.321842</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.6689299999999996</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.4404589999999997</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3655269999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.8390120000000003</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>14.30021</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16.210939</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11.890896</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11.015796</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8.1046600000000009</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <f>CORREL(Valores_REALES!C5:L5, Valores_Ajustados!C5:L5)</f>
+        <v>0.99962115013096453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>9.9391180000000006</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9.8502919999999996</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.799849</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.6143929999999997</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9.4563179999999996</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9.3997639999999993</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.3572849999999992</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9.2413559999999997</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9.1627200000000002</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9.05715</v>
       </c>
     </row>
@@ -1172,218 +1253,237 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCB7D6A-9CB1-448C-AD31-4E3170E806D3}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>2.8835329999999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.96247199999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.92838500000000002</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.40206700000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.6327750000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.5126000000000002E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.20380499999999999</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-9.0669E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.3117000000000001E-2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-1.61866</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>2.8835289999999998</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.96247300000000002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.92837700000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.402057</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.632765</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.5130000000000006E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.20379900000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-9.0675000000000006E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.3120999999999998E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-1.6186579999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>0.43184400000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.25081900000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.2520340000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.233174</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.1876880000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.77348700000000004</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.062989</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.112082</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.74832600000000005</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5.6961999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>2.8954909999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.96006100000000005</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.95465900000000004</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.44077899999999998</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.664288</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.2959000000000005E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.221029</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-7.0580000000000004E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.9258000000000001E-2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-1.622722</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>-1.147186</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.0678999999999997E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.424274</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-1.2927789999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.4463010000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.76987000000000005</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.1889510000000001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1.114517</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.75612800000000002</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.248752</v>
       </c>
     </row>
@@ -1394,218 +1494,237 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226E544-F501-402F-9CD2-68145F2977EF}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>2.2844E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.0899000000000001E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.0337000000000001E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.0670000000000001E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.2106000000000001E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.5052999999999999E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.7774E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.3837000000000001E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.3334000000000001E-2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.8926999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>4.9331E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.7176000000000003E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4.4651999999999997E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4.6156000000000003E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.7381E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.6440000000000002E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.6831999999999999E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.5319999999999999E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4.5405000000000001E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4.4761000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>1.3918E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.1379999999999999E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.9050000000000006E-3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8.907E-3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8.1740000000000007E-3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7.5750000000000001E-3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.0590000000000002E-3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6.6530000000000001E-3</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6.3270000000000002E-3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>1.4945E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.4952E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.4970000000000001E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.4992E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.4255E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.3537E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.4631999999999999E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.4727000000000001E-2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.4848999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>1.4003E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.1464999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.9939999999999994E-3</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8.9980000000000008E-3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.2439999999999996E-3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.607E-3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.0829999999999999E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6.6909999999999999E-3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.3660000000000001E-3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>6.1040000000000001E-3</v>
       </c>
     </row>
